--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Dip2a</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.1159918736262</v>
+        <v>51.41189066666666</v>
       </c>
       <c r="H2">
-        <v>49.1159918736262</v>
+        <v>154.235672</v>
       </c>
       <c r="I2">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="J2">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8685595019713</v>
+        <v>11.16309866666666</v>
       </c>
       <c r="N2">
-        <v>10.8685595019713</v>
+        <v>33.489296</v>
       </c>
       <c r="O2">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="P2">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="Q2">
-        <v>533.8200801768452</v>
+        <v>573.9160081518789</v>
       </c>
       <c r="R2">
-        <v>533.8200801768452</v>
+        <v>5165.244073366911</v>
       </c>
       <c r="S2">
-        <v>0.02550424376813475</v>
+        <v>0.02659206854057046</v>
       </c>
       <c r="T2">
-        <v>0.02550424376813475</v>
+        <v>0.02659206854057046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.1159918736262</v>
+        <v>51.41189066666666</v>
       </c>
       <c r="H3">
-        <v>49.1159918736262</v>
+        <v>154.235672</v>
       </c>
       <c r="I3">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="J3">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.1268609716437</v>
+        <v>10.13206566666667</v>
       </c>
       <c r="N3">
-        <v>10.1268609716437</v>
+        <v>30.396197</v>
       </c>
       <c r="O3">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="P3">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="Q3">
-        <v>497.3908211885943</v>
+        <v>520.9086522821538</v>
       </c>
       <c r="R3">
-        <v>497.3908211885943</v>
+        <v>4688.177870539384</v>
       </c>
       <c r="S3">
-        <v>0.02376376839819163</v>
+        <v>0.02413600315744716</v>
       </c>
       <c r="T3">
-        <v>0.02376376839819163</v>
+        <v>0.02413600315744716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.1159918736262</v>
+        <v>51.41189066666666</v>
       </c>
       <c r="H4">
-        <v>49.1159918736262</v>
+        <v>154.235672</v>
       </c>
       <c r="I4">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="J4">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.91873156929173</v>
+        <v>4.925418</v>
       </c>
       <c r="N4">
-        <v>4.91873156929173</v>
+        <v>14.776254</v>
       </c>
       <c r="O4">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="P4">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="Q4">
-        <v>241.5883797858813</v>
+        <v>253.225051703632</v>
       </c>
       <c r="R4">
-        <v>241.5883797858813</v>
+        <v>2279.025465332688</v>
       </c>
       <c r="S4">
-        <v>0.01154233262931329</v>
+        <v>0.01173303730066104</v>
       </c>
       <c r="T4">
-        <v>0.01154233262931329</v>
+        <v>0.01173303730066104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.1159918736262</v>
+        <v>51.41189066666666</v>
       </c>
       <c r="H5">
-        <v>49.1159918736262</v>
+        <v>154.235672</v>
       </c>
       <c r="I5">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="J5">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.29676811932485</v>
+        <v>3.651347666666666</v>
       </c>
       <c r="N5">
-        <v>3.29676811932485</v>
+        <v>10.954043</v>
       </c>
       <c r="O5">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="P5">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="Q5">
-        <v>161.9240361579893</v>
+        <v>187.7226870246551</v>
       </c>
       <c r="R5">
-        <v>161.9240361579893</v>
+        <v>1689.504183221896</v>
       </c>
       <c r="S5">
-        <v>0.007736220954306385</v>
+        <v>0.008698022862360441</v>
       </c>
       <c r="T5">
-        <v>0.007736220954306385</v>
+        <v>0.008698022862360441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.1159918736262</v>
+        <v>51.41189066666666</v>
       </c>
       <c r="H6">
-        <v>49.1159918736262</v>
+        <v>154.235672</v>
       </c>
       <c r="I6">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="J6">
-        <v>0.07422732786001571</v>
+        <v>0.07735360534124781</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42084029509539</v>
+        <v>2.600381333333333</v>
       </c>
       <c r="N6">
-        <v>2.42084029509539</v>
+        <v>7.801144</v>
       </c>
       <c r="O6">
-        <v>0.07653194953727727</v>
+        <v>0.08007995817236459</v>
       </c>
       <c r="P6">
-        <v>0.07653194953727727</v>
+        <v>0.08007995817236459</v>
       </c>
       <c r="Q6">
-        <v>118.901972261252</v>
+        <v>133.6905208009742</v>
       </c>
       <c r="R6">
-        <v>118.901972261252</v>
+        <v>1203.214687208768</v>
       </c>
       <c r="S6">
-        <v>0.005680762110069657</v>
+        <v>0.006194473480208722</v>
       </c>
       <c r="T6">
-        <v>0.005680762110069657</v>
+        <v>0.006194473480208722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>598.121398741887</v>
+        <v>598.2178753333334</v>
       </c>
       <c r="H7">
-        <v>598.121398741887</v>
+        <v>1794.653626</v>
       </c>
       <c r="I7">
-        <v>0.9039205250855384</v>
+        <v>0.9000701751397912</v>
       </c>
       <c r="J7">
-        <v>0.9039205250855384</v>
+        <v>0.900070175139791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.8685595019713</v>
+        <v>11.16309866666666</v>
       </c>
       <c r="N7">
-        <v>10.8685595019713</v>
+        <v>33.489296</v>
       </c>
       <c r="O7">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="P7">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="Q7">
-        <v>6500.7180116285</v>
+        <v>6677.965166509699</v>
       </c>
       <c r="R7">
-        <v>6500.7180116285</v>
+        <v>60101.68649858729</v>
       </c>
       <c r="S7">
-        <v>0.3105838521127798</v>
+        <v>0.3094196797040267</v>
       </c>
       <c r="T7">
-        <v>0.3105838521127798</v>
+        <v>0.3094196797040266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>598.121398741887</v>
+        <v>598.2178753333334</v>
       </c>
       <c r="H8">
-        <v>598.121398741887</v>
+        <v>1794.653626</v>
       </c>
       <c r="I8">
-        <v>0.9039205250855384</v>
+        <v>0.9000701751397912</v>
       </c>
       <c r="J8">
-        <v>0.9039205250855384</v>
+        <v>0.900070175139791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.1268609716437</v>
+        <v>10.13206566666667</v>
       </c>
       <c r="N8">
-        <v>10.1268609716437</v>
+        <v>30.396197</v>
       </c>
       <c r="O8">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="P8">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="Q8">
-        <v>6057.092249224154</v>
+        <v>6061.182795851148</v>
       </c>
       <c r="R8">
-        <v>6057.092249224154</v>
+        <v>54550.64516266032</v>
       </c>
       <c r="S8">
-        <v>0.2893888090517604</v>
+        <v>0.2808414228821203</v>
       </c>
       <c r="T8">
-        <v>0.2893888090517604</v>
+        <v>0.2808414228821202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>598.121398741887</v>
+        <v>598.2178753333334</v>
       </c>
       <c r="H9">
-        <v>598.121398741887</v>
+        <v>1794.653626</v>
       </c>
       <c r="I9">
-        <v>0.9039205250855384</v>
+        <v>0.9000701751397912</v>
       </c>
       <c r="J9">
-        <v>0.9039205250855384</v>
+        <v>0.900070175139791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.91873156929173</v>
+        <v>4.925418</v>
       </c>
       <c r="N9">
-        <v>4.91873156929173</v>
+        <v>14.776254</v>
       </c>
       <c r="O9">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="P9">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="Q9">
-        <v>2941.998606260647</v>
+        <v>2946.473091088556</v>
       </c>
       <c r="R9">
-        <v>2941.998606260647</v>
+        <v>26518.257819797</v>
       </c>
       <c r="S9">
-        <v>0.140559436420464</v>
+        <v>0.1365231380171546</v>
       </c>
       <c r="T9">
-        <v>0.140559436420464</v>
+        <v>0.1365231380171546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>598.121398741887</v>
+        <v>598.2178753333334</v>
       </c>
       <c r="H10">
-        <v>598.121398741887</v>
+        <v>1794.653626</v>
       </c>
       <c r="I10">
-        <v>0.9039205250855384</v>
+        <v>0.9000701751397912</v>
       </c>
       <c r="J10">
-        <v>0.9039205250855384</v>
+        <v>0.900070175139791</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.29676811932485</v>
+        <v>3.651347666666666</v>
       </c>
       <c r="N10">
-        <v>3.29676811932485</v>
+        <v>10.954043</v>
       </c>
       <c r="O10">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="P10">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="Q10">
-        <v>1971.86755885824</v>
+        <v>2184.301443256657</v>
       </c>
       <c r="R10">
-        <v>1971.86755885824</v>
+        <v>19658.71298930992</v>
       </c>
       <c r="S10">
-        <v>0.09420962748897874</v>
+        <v>0.1012083525591023</v>
       </c>
       <c r="T10">
-        <v>0.09420962748897874</v>
+        <v>0.1012083525591023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>598.121398741887</v>
+        <v>598.2178753333334</v>
       </c>
       <c r="H11">
-        <v>598.121398741887</v>
+        <v>1794.653626</v>
       </c>
       <c r="I11">
-        <v>0.9039205250855384</v>
+        <v>0.9000701751397912</v>
       </c>
       <c r="J11">
-        <v>0.9039205250855384</v>
+        <v>0.900070175139791</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.42084029509539</v>
+        <v>2.600381333333333</v>
       </c>
       <c r="N11">
-        <v>2.42084029509539</v>
+        <v>7.801144</v>
       </c>
       <c r="O11">
-        <v>0.07653194953727727</v>
+        <v>0.08007995817236459</v>
       </c>
       <c r="P11">
-        <v>0.07653194953727727</v>
+        <v>0.08007995817236459</v>
       </c>
       <c r="Q11">
-        <v>1447.956383433177</v>
+        <v>1555.594596283127</v>
       </c>
       <c r="R11">
-        <v>1447.956383433177</v>
+        <v>14000.35136654814</v>
       </c>
       <c r="S11">
-        <v>0.0691788000115556</v>
+        <v>0.07207758197738734</v>
       </c>
       <c r="T11">
-        <v>0.0691788000115556</v>
+        <v>0.07207758197738734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.176078648840925</v>
+        <v>0.064536</v>
       </c>
       <c r="H12">
-        <v>0.176078648840925</v>
+        <v>0.193608</v>
       </c>
       <c r="I12">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="J12">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.8685595019713</v>
+        <v>11.16309866666666</v>
       </c>
       <c r="N12">
-        <v>10.8685595019713</v>
+        <v>33.489296</v>
       </c>
       <c r="O12">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="P12">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="Q12">
-        <v>1.913721271954303</v>
+        <v>0.7204217355519998</v>
       </c>
       <c r="R12">
-        <v>1.913721271954303</v>
+        <v>6.483795619967999</v>
       </c>
       <c r="S12">
-        <v>9.143158085776431E-05</v>
+        <v>3.338032725660745E-05</v>
       </c>
       <c r="T12">
-        <v>9.143158085776431E-05</v>
+        <v>3.338032725660745E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.176078648840925</v>
+        <v>0.064536</v>
       </c>
       <c r="H13">
-        <v>0.176078648840925</v>
+        <v>0.193608</v>
       </c>
       <c r="I13">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="J13">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.1268609716437</v>
+        <v>10.13206566666667</v>
       </c>
       <c r="N13">
-        <v>10.1268609716437</v>
+        <v>30.396197</v>
       </c>
       <c r="O13">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="P13">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="Q13">
-        <v>1.783123996886919</v>
+        <v>0.6538829898640001</v>
       </c>
       <c r="R13">
-        <v>1.783123996886919</v>
+        <v>5.884946908776</v>
       </c>
       <c r="S13">
-        <v>8.519205397884049E-05</v>
+        <v>3.029729269962288E-05</v>
       </c>
       <c r="T13">
-        <v>8.519205397884049E-05</v>
+        <v>3.029729269962288E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.176078648840925</v>
+        <v>0.064536</v>
       </c>
       <c r="H14">
-        <v>0.176078648840925</v>
+        <v>0.193608</v>
       </c>
       <c r="I14">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="J14">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.91873156929173</v>
+        <v>4.925418</v>
       </c>
       <c r="N14">
-        <v>4.91873156929173</v>
+        <v>14.776254</v>
       </c>
       <c r="O14">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="P14">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="Q14">
-        <v>0.8660836087320906</v>
+        <v>0.317866776048</v>
       </c>
       <c r="R14">
-        <v>0.8660836087320906</v>
+        <v>2.860800984432</v>
       </c>
       <c r="S14">
-        <v>4.137874969666081E-05</v>
+        <v>1.472817446346901E-05</v>
       </c>
       <c r="T14">
-        <v>4.137874969666081E-05</v>
+        <v>1.472817446346901E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.176078648840925</v>
+        <v>0.064536</v>
       </c>
       <c r="H15">
-        <v>0.176078648840925</v>
+        <v>0.193608</v>
       </c>
       <c r="I15">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="J15">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.29676811932485</v>
+        <v>3.651347666666666</v>
       </c>
       <c r="N15">
-        <v>3.29676811932485</v>
+        <v>10.954043</v>
       </c>
       <c r="O15">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="P15">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="Q15">
-        <v>0.580490475992557</v>
+        <v>0.235643373016</v>
       </c>
       <c r="R15">
-        <v>0.580490475992557</v>
+        <v>2.120790357144</v>
       </c>
       <c r="S15">
-        <v>2.773400843199852E-05</v>
+        <v>1.091840031880485E-05</v>
       </c>
       <c r="T15">
-        <v>2.773400843199852E-05</v>
+        <v>1.091840031880485E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.176078648840925</v>
+        <v>0.064536</v>
       </c>
       <c r="H16">
-        <v>0.176078648840925</v>
+        <v>0.193608</v>
       </c>
       <c r="I16">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="J16">
-        <v>0.0002661016727564455</v>
+        <v>9.709995507983592E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.42084029509539</v>
+        <v>2.600381333333333</v>
       </c>
       <c r="N16">
-        <v>2.42084029509539</v>
+        <v>7.801144</v>
       </c>
       <c r="O16">
-        <v>0.07653194953727727</v>
+        <v>0.08007995817236459</v>
       </c>
       <c r="P16">
-        <v>0.07653194953727727</v>
+        <v>0.08007995817236459</v>
       </c>
       <c r="Q16">
-        <v>0.4262582882200625</v>
+        <v>0.167818209728</v>
       </c>
       <c r="R16">
-        <v>0.4262582882200625</v>
+        <v>1.510363887552</v>
       </c>
       <c r="S16">
-        <v>2.036527979118136E-05</v>
+        <v>7.775760341331741E-06</v>
       </c>
       <c r="T16">
-        <v>2.036527979118136E-05</v>
+        <v>7.775760341331741E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2834190602987</v>
+        <v>0.1873763333333333</v>
       </c>
       <c r="H17">
-        <v>14.2834190602987</v>
+        <v>0.562129</v>
       </c>
       <c r="I17">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="J17">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.8685595019713</v>
+        <v>11.16309866666666</v>
       </c>
       <c r="N17">
-        <v>10.8685595019713</v>
+        <v>33.489296</v>
       </c>
       <c r="O17">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="P17">
-        <v>0.3435964152748817</v>
+        <v>0.343772839329967</v>
       </c>
       <c r="Q17">
-        <v>155.2401899484474</v>
+        <v>2.091700496798222</v>
       </c>
       <c r="R17">
-        <v>155.2401899484474</v>
+        <v>18.825304471184</v>
       </c>
       <c r="S17">
-        <v>0.007416887813109437</v>
+        <v>9.691774090135475E-05</v>
       </c>
       <c r="T17">
-        <v>0.007416887813109437</v>
+        <v>9.691774090135473E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2834190602987</v>
+        <v>0.1873763333333333</v>
       </c>
       <c r="H18">
-        <v>14.2834190602987</v>
+        <v>0.562129</v>
       </c>
       <c r="I18">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="J18">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.1268609716437</v>
+        <v>10.13206566666667</v>
       </c>
       <c r="N18">
-        <v>10.1268609716437</v>
+        <v>30.396197</v>
       </c>
       <c r="O18">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="P18">
-        <v>0.3201485097645895</v>
+        <v>0.3120216963510677</v>
       </c>
       <c r="Q18">
-        <v>144.6461990233706</v>
+        <v>1.898509313712556</v>
       </c>
       <c r="R18">
-        <v>144.6461990233706</v>
+        <v>17.086583823413</v>
       </c>
       <c r="S18">
-        <v>0.006910740260658702</v>
+        <v>8.796633841549065E-05</v>
       </c>
       <c r="T18">
-        <v>0.006910740260658702</v>
+        <v>8.796633841549064E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2834190602987</v>
+        <v>0.1873763333333333</v>
       </c>
       <c r="H19">
-        <v>14.2834190602987</v>
+        <v>0.562129</v>
       </c>
       <c r="I19">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="J19">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.91873156929173</v>
+        <v>4.925418</v>
       </c>
       <c r="N19">
-        <v>4.91873156929173</v>
+        <v>14.776254</v>
       </c>
       <c r="O19">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="P19">
-        <v>0.15549977295533</v>
+        <v>0.1516805486816081</v>
       </c>
       <c r="Q19">
-        <v>70.25630424931444</v>
+        <v>0.9229067649739999</v>
       </c>
       <c r="R19">
-        <v>70.25630424931444</v>
+        <v>8.306160884765999</v>
       </c>
       <c r="S19">
-        <v>0.003356625155856172</v>
+        <v>4.276235477343587E-05</v>
       </c>
       <c r="T19">
-        <v>0.003356625155856172</v>
+        <v>4.276235477343587E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2834190602987</v>
+        <v>0.1873763333333333</v>
       </c>
       <c r="H20">
-        <v>14.2834190602987</v>
+        <v>0.562129</v>
       </c>
       <c r="I20">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="J20">
-        <v>0.02158604538168953</v>
+        <v>0.0002819237874936629</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.29676811932485</v>
+        <v>3.651347666666666</v>
       </c>
       <c r="N20">
-        <v>3.29676811932485</v>
+        <v>10.954043</v>
       </c>
       <c r="O20">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="P20">
-        <v>0.1042233524679215</v>
+        <v>0.1124449574649927</v>
       </c>
       <c r="Q20">
-        <v>47.08912059294966</v>
+        <v>0.6841761375052221</v>
       </c>
       <c r="R20">
-        <v>47.08912059294966</v>
+        <v>6.157585237546999</v>
       </c>
       <c r="S20">
-        <v>0.002249770016204376</v>
+        <v>3.170090829309456E-05</v>
       </c>
       <c r="T20">
-        <v>0.002249770016204376</v>
+        <v>3.170090829309456E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1873763333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.562129</v>
+      </c>
+      <c r="I21">
+        <v>0.0002819237874936629</v>
+      </c>
+      <c r="J21">
+        <v>0.0002819237874936629</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.600381333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.801144</v>
+      </c>
+      <c r="O21">
+        <v>0.08007995817236459</v>
+      </c>
+      <c r="P21">
+        <v>0.08007995817236459</v>
+      </c>
+      <c r="Q21">
+        <v>0.4872499195084445</v>
+      </c>
+      <c r="R21">
+        <v>4.385249275576</v>
+      </c>
+      <c r="S21">
+        <v>2.257644511028713E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.257644511028713E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>14.75302666666667</v>
+      </c>
+      <c r="H22">
+        <v>44.25908</v>
+      </c>
+      <c r="I22">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="J22">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.16309866666666</v>
+      </c>
+      <c r="N22">
+        <v>33.489296</v>
+      </c>
+      <c r="O22">
+        <v>0.343772839329967</v>
+      </c>
+      <c r="P22">
+        <v>0.343772839329967</v>
+      </c>
+      <c r="Q22">
+        <v>164.6894923119644</v>
+      </c>
+      <c r="R22">
+        <v>1482.20543080768</v>
+      </c>
+      <c r="S22">
+        <v>0.007630793017211941</v>
+      </c>
+      <c r="T22">
+        <v>0.007630793017211941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>14.75302666666667</v>
+      </c>
+      <c r="H23">
+        <v>44.25908</v>
+      </c>
+      <c r="I23">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="J23">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.13206566666667</v>
+      </c>
+      <c r="N23">
+        <v>30.396197</v>
+      </c>
+      <c r="O23">
+        <v>0.3120216963510677</v>
+      </c>
+      <c r="P23">
+        <v>0.3120216963510677</v>
+      </c>
+      <c r="Q23">
+        <v>149.4786349687511</v>
+      </c>
+      <c r="R23">
+        <v>1345.30771471876</v>
+      </c>
+      <c r="S23">
+        <v>0.006926006680385238</v>
+      </c>
+      <c r="T23">
+        <v>0.006926006680385238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>14.75302666666667</v>
+      </c>
+      <c r="H24">
+        <v>44.25908</v>
+      </c>
+      <c r="I24">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="J24">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.925418</v>
+      </c>
+      <c r="N24">
+        <v>14.776254</v>
+      </c>
+      <c r="O24">
+        <v>0.1516805486816081</v>
+      </c>
+      <c r="P24">
+        <v>0.1516805486816081</v>
+      </c>
+      <c r="Q24">
+        <v>72.66482309847999</v>
+      </c>
+      <c r="R24">
+        <v>653.9834078863199</v>
+      </c>
+      <c r="S24">
+        <v>0.003366882834555556</v>
+      </c>
+      <c r="T24">
+        <v>0.003366882834555556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>14.2834190602987</v>
-      </c>
-      <c r="H21">
-        <v>14.2834190602987</v>
-      </c>
-      <c r="I21">
-        <v>0.02158604538168953</v>
-      </c>
-      <c r="J21">
-        <v>0.02158604538168953</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.42084029509539</v>
-      </c>
-      <c r="N21">
-        <v>2.42084029509539</v>
-      </c>
-      <c r="O21">
-        <v>0.07653194953727727</v>
-      </c>
-      <c r="P21">
-        <v>0.07653194953727727</v>
-      </c>
-      <c r="Q21">
-        <v>34.57787641290462</v>
-      </c>
-      <c r="R21">
-        <v>34.57787641290462</v>
-      </c>
-      <c r="S21">
-        <v>0.00165202213586084</v>
-      </c>
-      <c r="T21">
-        <v>0.00165202213586084</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.75302666666667</v>
+      </c>
+      <c r="H25">
+        <v>44.25908</v>
+      </c>
+      <c r="I25">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="J25">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.651347666666666</v>
+      </c>
+      <c r="N25">
+        <v>10.954043</v>
+      </c>
+      <c r="O25">
+        <v>0.1124449574649927</v>
+      </c>
+      <c r="P25">
+        <v>0.1124449574649927</v>
+      </c>
+      <c r="Q25">
+        <v>53.86842949560443</v>
+      </c>
+      <c r="R25">
+        <v>484.8158654604399</v>
+      </c>
+      <c r="S25">
+        <v>0.002495962734918027</v>
+      </c>
+      <c r="T25">
+        <v>0.002495962734918027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.75302666666667</v>
+      </c>
+      <c r="H26">
+        <v>44.25908</v>
+      </c>
+      <c r="I26">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="J26">
+        <v>0.02219719577638767</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.600381333333333</v>
+      </c>
+      <c r="N26">
+        <v>7.801144</v>
+      </c>
+      <c r="O26">
+        <v>0.08007995817236459</v>
+      </c>
+      <c r="P26">
+        <v>0.08007995817236459</v>
+      </c>
+      <c r="Q26">
+        <v>38.36349515416889</v>
+      </c>
+      <c r="R26">
+        <v>345.2714563875199</v>
+      </c>
+      <c r="S26">
+        <v>0.001777550509316913</v>
+      </c>
+      <c r="T26">
+        <v>0.001777550509316913</v>
       </c>
     </row>
   </sheetData>
